--- a/MKT/MKT.Web/Files/SIM/EstructuraSIMS2.xlsx
+++ b/MKT/MKT.Web/Files/SIM/EstructuraSIMS2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5835" uniqueCount="1181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5830" uniqueCount="1180">
   <si>
     <t>ESTEFANY MARTINEZ CAMACHO</t>
   </si>
@@ -3556,9 +3556,6 @@
   </si>
   <si>
     <t>8952037000123760606F</t>
-  </si>
-  <si>
-    <t>8952037000123760598F</t>
   </si>
 </sst>
 </file>
@@ -3919,12 +3916,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1168"/>
+  <dimension ref="A1:H1167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1157" workbookViewId="0">
+      <selection activeCell="B1161" sqref="B1161"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -34243,32 +34244,6 @@
         <v>43466</v>
       </c>
       <c r="H1167" s="3">
-        <v>43466</v>
-      </c>
-    </row>
-    <row r="1168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1168" s="4">
-        <v>10000</v>
-      </c>
-      <c r="B1168" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1168" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1168" s="2" t="s">
-        <v>1180</v>
-      </c>
-      <c r="E1168" s="2" t="s">
-        <v>980</v>
-      </c>
-      <c r="F1168" s="2" t="s">
-        <v>981</v>
-      </c>
-      <c r="G1168" s="3">
-        <v>43466</v>
-      </c>
-      <c r="H1168" s="3">
         <v>43466</v>
       </c>
     </row>
